--- a/通讯协议20190118.xlsx
+++ b/通讯协议20190118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C49766-AF13-4859-A007-2B6C362B39A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803ADB7D-5B8D-4B1A-A670-ED815EF8653F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7485" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="124">
   <si>
     <t>CRC8</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,7 +542,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>add temperture warning</t>
+    <t>Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:Null
+1:Channel1
+2:Channel2
+n:Channeln</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>add temperture warning
+add channel</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -559,6 +571,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -570,6 +583,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -577,6 +591,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1667,6 +1682,132 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,145 +1850,19 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2298,11 +2313,11 @@
   <dimension ref="B1:M50"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42:F44"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2326,45 +2341,45 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111" t="s">
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="153" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="129"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="80" t="s">
         <v>16</v>
       </c>
@@ -2377,28 +2392,28 @@
       <c r="L3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="112"/>
+      <c r="M3" s="154"/>
     </row>
     <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="127" t="s">
+      <c r="F4" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="145" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="82">
@@ -2416,13 +2431,13 @@
       <c r="M4" s="84"/>
     </row>
     <row r="5" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="114"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="127"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="145"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -2438,13 +2453,13 @@
       <c r="M5" s="24"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="114"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="127"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="145"/>
       <c r="I6" s="10">
         <v>3</v>
       </c>
@@ -2460,13 +2475,13 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="114"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="127"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="55">
         <v>4</v>
       </c>
@@ -2482,9 +2497,9 @@
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="2:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2512,21 +2527,21 @@
       <c r="M8" s="51"/>
     </row>
     <row r="9" spans="2:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="114"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="130" t="s">
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="143" t="s">
+      <c r="F9" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="144" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="21">
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="114"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
+    <row r="10" spans="2:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="156"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
       <c r="I10" s="10">
         <v>1</v>
       </c>
@@ -2558,19 +2573,21 @@
         <v>10</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="20"/>
+        <v>121</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="M10" s="24"/>
     </row>
     <row r="11" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="114"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
       <c r="I11" s="25">
         <v>2</v>
       </c>
@@ -2586,9 +2603,9 @@
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="139"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="45" t="s">
         <v>7</v>
       </c>
@@ -2616,21 +2633,21 @@
       <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="114"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="130" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="136" t="s">
+      <c r="E13" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="134" t="s">
+      <c r="F13" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="135" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="94">
@@ -2648,13 +2665,13 @@
       <c r="M13" s="23"/>
     </row>
     <row r="14" spans="2:13" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="114"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
       <c r="I14" s="96">
         <v>1</v>
       </c>
@@ -2670,13 +2687,13 @@
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="114"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="96">
         <v>2</v>
       </c>
@@ -2692,13 +2709,13 @@
       <c r="M15" s="24"/>
     </row>
     <row r="16" spans="2:13" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="95">
         <v>3</v>
       </c>
@@ -2714,9 +2731,9 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="45" t="s">
         <v>7</v>
       </c>
@@ -2744,21 +2761,21 @@
       <c r="M17" s="107"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="114"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="145" t="s">
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="136" t="s">
+      <c r="E18" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="134" t="s">
+      <c r="F18" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="135" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="21">
@@ -2776,13 +2793,13 @@
       <c r="M18" s="23"/>
     </row>
     <row r="19" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="114"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="25">
         <v>2</v>
       </c>
@@ -2798,9 +2815,9 @@
       <c r="M19" s="26"/>
     </row>
     <row r="20" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="114"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="138"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="11" t="s">
         <v>7</v>
       </c>
@@ -2828,21 +2845,21 @@
       <c r="M20" s="19"/>
     </row>
     <row r="21" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="114"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="130" t="s">
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="134" t="s">
+      <c r="F21" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="135" t="s">
         <v>62</v>
       </c>
       <c r="I21" s="21">
@@ -2860,13 +2877,13 @@
       <c r="M21" s="23"/>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="114"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="25">
         <v>1</v>
       </c>
@@ -2882,9 +2899,9 @@
       <c r="M22" s="26"/>
     </row>
     <row r="23" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="114"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="133"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="13" t="s">
         <v>7</v>
       </c>
@@ -2912,14 +2929,14 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="114"/>
+      <c r="B24" s="156"/>
     </row>
     <row r="25" spans="2:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="114"/>
-      <c r="C25" s="166" t="s">
+      <c r="B25" s="156"/>
+      <c r="C25" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="149" t="s">
+      <c r="D25" s="123" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="57" t="s">
@@ -2949,19 +2966,19 @@
       <c r="M25" s="61"/>
     </row>
     <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="114"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="152" t="s">
+      <c r="B26" s="156"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="146" t="s">
+      <c r="F26" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="112" t="s">
         <v>68</v>
       </c>
       <c r="I26" s="62">
@@ -2979,13 +2996,13 @@
       <c r="M26" s="72"/>
     </row>
     <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="114"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
       <c r="I27" s="63">
         <v>2</v>
       </c>
@@ -3001,13 +3018,13 @@
       <c r="M27" s="67"/>
     </row>
     <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="114"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
       <c r="I28" s="63">
         <v>3</v>
       </c>
@@ -3023,13 +3040,13 @@
       <c r="M28" s="67"/>
     </row>
     <row r="29" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="114"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
       <c r="I29" s="64">
         <v>4</v>
       </c>
@@ -3045,9 +3062,9 @@
       <c r="M29" s="69"/>
     </row>
     <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="114"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="149" t="s">
+      <c r="B30" s="156"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="123" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="57" t="s">
@@ -3077,19 +3094,19 @@
       <c r="M30" s="61"/>
     </row>
     <row r="31" spans="2:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="114"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="155" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="146" t="s">
+      <c r="F31" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="112" t="s">
         <v>72</v>
       </c>
       <c r="I31" s="62">
@@ -3107,13 +3124,13 @@
       <c r="M31" s="72"/>
     </row>
     <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="114"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
       <c r="I32" s="63">
         <v>1</v>
       </c>
@@ -3127,13 +3144,13 @@
       <c r="M32" s="67"/>
     </row>
     <row r="33" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="114"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
       <c r="I33" s="73">
         <v>2</v>
       </c>
@@ -3149,9 +3166,9 @@
       <c r="M33" s="75"/>
     </row>
     <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="114"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="149" t="s">
+      <c r="B34" s="156"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="123" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="57" t="s">
@@ -3181,19 +3198,19 @@
       <c r="M34" s="61"/>
     </row>
     <row r="35" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="114"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="152" t="s">
+      <c r="B35" s="156"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="146" t="s">
+      <c r="F35" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="112" t="s">
         <v>73</v>
       </c>
       <c r="I35" s="62">
@@ -3211,13 +3228,13 @@
       <c r="M35" s="72"/>
     </row>
     <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="114"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
       <c r="I36" s="63">
         <v>1</v>
       </c>
@@ -3233,13 +3250,13 @@
       <c r="M36" s="67"/>
     </row>
     <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="114"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
       <c r="I37" s="63">
         <v>2</v>
       </c>
@@ -3255,13 +3272,13 @@
       <c r="M37" s="67"/>
     </row>
     <row r="38" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="114"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="73">
         <v>3</v>
       </c>
@@ -3277,13 +3294,13 @@
       <c r="M38" s="75"/>
     </row>
     <row r="39" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="114"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
       <c r="I39" s="73">
         <v>4</v>
       </c>
@@ -3299,13 +3316,13 @@
       <c r="M39" s="75"/>
     </row>
     <row r="40" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="114"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
       <c r="I40" s="73">
         <v>5</v>
       </c>
@@ -3321,9 +3338,9 @@
       <c r="M40" s="75"/>
     </row>
     <row r="41" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="114"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="163" t="s">
+      <c r="B41" s="156"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="118" t="s">
         <v>78</v>
       </c>
       <c r="E41" s="98" t="s">
@@ -3353,19 +3370,19 @@
       <c r="M41" s="102"/>
     </row>
     <row r="42" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="114"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="152" t="s">
+      <c r="B42" s="156"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="146" t="s">
+      <c r="F42" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="112" t="s">
         <v>79</v>
       </c>
       <c r="I42" s="62">
@@ -3383,13 +3400,13 @@
       <c r="M42" s="72"/>
     </row>
     <row r="43" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="114"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
       <c r="I43" s="63">
         <v>1</v>
       </c>
@@ -3405,13 +3422,13 @@
       <c r="M43" s="67"/>
     </row>
     <row r="44" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="114"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
       <c r="I44" s="64">
         <v>2</v>
       </c>
@@ -3427,14 +3444,14 @@
       <c r="M44" s="69"/>
     </row>
     <row r="45" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="114"/>
+      <c r="B45" s="156"/>
     </row>
     <row r="46" spans="2:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="114"/>
-      <c r="C46" s="157" t="s">
+      <c r="B46" s="156"/>
+      <c r="C46" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="159" t="s">
+      <c r="D46" s="110" t="s">
         <v>83</v>
       </c>
       <c r="E46" s="85" t="s">
@@ -3464,9 +3481,9 @@
       <c r="M46" s="88"/>
     </row>
     <row r="47" spans="2:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="115"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="160"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="111"/>
       <c r="E47" s="89" t="s">
         <v>61</v>
       </c>
@@ -3498,6 +3515,49 @@
     <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:B47"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="H42:H44"/>
@@ -3514,49 +3574,6 @@
     <mergeCell ref="H31:H33"/>
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B4:B47"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -3595,45 +3612,45 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111" t="s">
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="153" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="129"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="80" t="s">
         <v>16</v>
       </c>
@@ -3646,28 +3663,28 @@
       <c r="L3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="112"/>
+      <c r="M3" s="154"/>
     </row>
     <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="124" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="127" t="s">
+      <c r="F4" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="145" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="82">
@@ -3685,13 +3702,13 @@
       <c r="M4" s="84"/>
     </row>
     <row r="5" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="114"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="127"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="145"/>
       <c r="I5" s="10">
         <v>2</v>
       </c>
@@ -3707,13 +3724,13 @@
       <c r="M5" s="24"/>
     </row>
     <row r="6" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="114"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="127"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="145"/>
       <c r="I6" s="10">
         <v>3</v>
       </c>
@@ -3729,13 +3746,13 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="114"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="127"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="55">
         <v>4</v>
       </c>
@@ -3751,9 +3768,9 @@
       <c r="M7" s="76"/>
     </row>
     <row r="8" spans="2:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="120"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3781,21 +3798,21 @@
       <c r="M8" s="51"/>
     </row>
     <row r="9" spans="2:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="114"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="130" t="s">
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="143" t="s">
+      <c r="F9" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="144" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="21">
@@ -3813,13 +3830,13 @@
       <c r="M9" s="23"/>
     </row>
     <row r="10" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="114"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
       <c r="I10" s="10">
         <v>1</v>
       </c>
@@ -3833,13 +3850,13 @@
       <c r="M10" s="24"/>
     </row>
     <row r="11" spans="2:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="114"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
       <c r="I11" s="25">
         <v>2</v>
       </c>
@@ -3855,9 +3872,9 @@
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="139"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="45" t="s">
         <v>7</v>
       </c>
@@ -3885,21 +3902,21 @@
       <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="114"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="130" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="143" t="s">
+      <c r="F13" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="144" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="21">
@@ -3917,13 +3934,13 @@
       <c r="M13" s="23"/>
     </row>
     <row r="14" spans="2:13" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="114"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
       <c r="I14" s="10">
         <v>1</v>
       </c>
@@ -3939,13 +3956,13 @@
       <c r="M14" s="24"/>
     </row>
     <row r="15" spans="2:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="114"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="25">
         <v>2</v>
       </c>
@@ -3961,9 +3978,9 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="133"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
@@ -3991,21 +4008,21 @@
       <c r="M16" s="51"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="114"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="145" t="s">
+      <c r="B17" s="156"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="134" t="s">
+      <c r="F17" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="135" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="21">
@@ -4023,13 +4040,13 @@
       <c r="M17" s="23"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="114"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="25">
         <v>2</v>
       </c>
@@ -4045,9 +4062,9 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="114"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="138"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="132"/>
       <c r="E19" s="11" t="s">
         <v>7</v>
       </c>
@@ -4075,21 +4092,21 @@
       <c r="M19" s="19"/>
     </row>
     <row r="20" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="114"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="130" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="136" t="s">
+      <c r="E20" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="134" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="134" t="s">
+      <c r="F20" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="135" t="s">
         <v>62</v>
       </c>
       <c r="I20" s="21">
@@ -4107,13 +4124,13 @@
       <c r="M20" s="23"/>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="114"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
       <c r="I21" s="25">
         <v>1</v>
       </c>
@@ -4129,9 +4146,9 @@
       <c r="M21" s="26"/>
     </row>
     <row r="22" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="114"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="133"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="13" t="s">
         <v>7</v>
       </c>
@@ -4159,14 +4176,14 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="114"/>
+      <c r="B23" s="156"/>
     </row>
     <row r="24" spans="2:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="114"/>
-      <c r="C24" s="166" t="s">
+      <c r="B24" s="156"/>
+      <c r="C24" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="149" t="s">
+      <c r="D24" s="123" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="57" t="s">
@@ -4196,19 +4213,19 @@
       <c r="M24" s="61"/>
     </row>
     <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="114"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="152" t="s">
+      <c r="B25" s="156"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="146" t="s">
+      <c r="F25" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="112" t="s">
         <v>68</v>
       </c>
       <c r="I25" s="62">
@@ -4226,13 +4243,13 @@
       <c r="M25" s="72"/>
     </row>
     <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="114"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
       <c r="I26" s="63">
         <v>2</v>
       </c>
@@ -4248,13 +4265,13 @@
       <c r="M26" s="67"/>
     </row>
     <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="114"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
       <c r="I27" s="63">
         <v>3</v>
       </c>
@@ -4270,13 +4287,13 @@
       <c r="M27" s="67"/>
     </row>
     <row r="28" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="114"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
       <c r="I28" s="64">
         <v>4</v>
       </c>
@@ -4292,9 +4309,9 @@
       <c r="M28" s="69"/>
     </row>
     <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="114"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="149" t="s">
+      <c r="B29" s="156"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="57" t="s">
@@ -4324,19 +4341,19 @@
       <c r="M29" s="61"/>
     </row>
     <row r="30" spans="2:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="114"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="155" t="s">
+      <c r="B30" s="156"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="146" t="s">
+      <c r="F30" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="112" t="s">
         <v>72</v>
       </c>
       <c r="I30" s="62">
@@ -4354,13 +4371,13 @@
       <c r="M30" s="72"/>
     </row>
     <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="114"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
       <c r="I31" s="63">
         <v>1</v>
       </c>
@@ -4374,13 +4391,13 @@
       <c r="M31" s="67"/>
     </row>
     <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="114"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
       <c r="I32" s="73">
         <v>2</v>
       </c>
@@ -4396,9 +4413,9 @@
       <c r="M32" s="75"/>
     </row>
     <row r="33" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="114"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="149" t="s">
+      <c r="B33" s="156"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="57" t="s">
@@ -4428,19 +4445,19 @@
       <c r="M33" s="61"/>
     </row>
     <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="114"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="152" t="s">
+      <c r="B34" s="156"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="146" t="s">
+      <c r="F34" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="112" t="s">
         <v>73</v>
       </c>
       <c r="I34" s="62">
@@ -4458,13 +4475,13 @@
       <c r="M34" s="72"/>
     </row>
     <row r="35" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="114"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
       <c r="I35" s="63">
         <v>1</v>
       </c>
@@ -4480,13 +4497,13 @@
       <c r="M35" s="67"/>
     </row>
     <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="114"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
       <c r="I36" s="63">
         <v>2</v>
       </c>
@@ -4502,13 +4519,13 @@
       <c r="M36" s="67"/>
     </row>
     <row r="37" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="114"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
       <c r="I37" s="73">
         <v>3</v>
       </c>
@@ -4524,13 +4541,13 @@
       <c r="M37" s="75"/>
     </row>
     <row r="38" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="114"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="73">
         <v>4</v>
       </c>
@@ -4546,13 +4563,13 @@
       <c r="M38" s="75"/>
     </row>
     <row r="39" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="114"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
       <c r="I39" s="73">
         <v>5</v>
       </c>
@@ -4568,9 +4585,9 @@
       <c r="M39" s="75"/>
     </row>
     <row r="40" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="114"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="163" t="s">
+      <c r="B40" s="156"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="118" t="s">
         <v>78</v>
       </c>
       <c r="E40" s="98" t="s">
@@ -4600,19 +4617,19 @@
       <c r="M40" s="102"/>
     </row>
     <row r="41" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="114"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="152" t="s">
+      <c r="B41" s="156"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="146" t="s">
+      <c r="F41" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="112" t="s">
         <v>79</v>
       </c>
       <c r="I41" s="62">
@@ -4630,13 +4647,13 @@
       <c r="M41" s="72"/>
     </row>
     <row r="42" spans="2:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="114"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
       <c r="I42" s="63">
         <v>1</v>
       </c>
@@ -4652,13 +4669,13 @@
       <c r="M42" s="67"/>
     </row>
     <row r="43" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="114"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="162"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
       <c r="I43" s="64">
         <v>2</v>
       </c>
@@ -4674,14 +4691,14 @@
       <c r="M43" s="69"/>
     </row>
     <row r="44" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="114"/>
+      <c r="B44" s="156"/>
     </row>
     <row r="45" spans="2:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="114"/>
-      <c r="C45" s="157" t="s">
+      <c r="B45" s="156"/>
+      <c r="C45" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="159" t="s">
+      <c r="D45" s="110" t="s">
         <v>83</v>
       </c>
       <c r="E45" s="85" t="s">
@@ -4711,9 +4728,9 @@
       <c r="M45" s="88"/>
     </row>
     <row r="46" spans="2:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="115"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="160"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="111"/>
       <c r="E46" s="89" t="s">
         <v>61</v>
       </c>
@@ -4745,11 +4762,44 @@
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:B46"/>
+    <mergeCell ref="C4:C22"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="H30:H32"/>
@@ -4766,44 +4816,11 @@
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B4:B46"/>
-    <mergeCell ref="C4:C22"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -4817,7 +4834,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4879,7 +4896,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
@@ -4893,7 +4910,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
